--- a/data/depot/Spending Drivers - K12 - Instructional and Total Employment and Payroll.xlsx
+++ b/data/depot/Spending Drivers - K12 - Instructional and Total Employment and Payroll.xlsx
@@ -1015,12 +1015,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
@@ -2031,12 +2032,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
